--- a/output/part2/January Anomaly Fama-Macbeth all months.xlsx
+++ b/output/part2/January Anomaly Fama-Macbeth all months.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01088420189094598</v>
+        <v>-0.01189875387118122</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005074199062995015</v>
+        <v>0.00492091689456868</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.145008848849072</v>
+        <v>-2.417995289518935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03290457998532625</v>
+        <v>0.01628629893577945</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003682465223083953</v>
+        <v>0.003584591898530053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001682628805675451</v>
+        <v>0.00163547929040141</v>
       </c>
       <c r="D3" t="n">
-        <v>2.188519066512542</v>
+        <v>2.191768443396343</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02954643274248319</v>
+        <v>0.02927318771431331</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004759736112659834</v>
+        <v>0.0004280276776954847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009946701221256972</v>
+        <v>0.0009678254525180852</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4785240862053704</v>
+        <v>0.442257099750625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6326904968251372</v>
+        <v>0.6586666387930787</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007630169533531109</v>
+        <v>0.0008035791028237742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00170595804618523</v>
+        <v>0.001635123923395406</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4472659542005314</v>
+        <v>0.4914484408956034</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6550657201067468</v>
+        <v>0.6235191899677925</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.470484644055596e-05</v>
+        <v>-1.203702192493107e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001061672292610449</v>
+        <v>0.001013307332797939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07036525956316615</v>
+        <v>-0.01187894485249061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9439585282889631</v>
+        <v>0.9905312020687302</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001380998902186058</v>
+        <v>0.0004013550557453304</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001341826000134418</v>
+        <v>0.00134492826478354</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102919372709108</v>
+        <v>0.2984211621204397</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9181084917588926</v>
+        <v>0.7656173765682668</v>
       </c>
     </row>
   </sheetData>

--- a/output/part2/January Anomaly Fama-Macbeth all months.xlsx
+++ b/output/part2/January Anomaly Fama-Macbeth all months.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01189875387118122</v>
+        <v>0.00849703169746199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00492091689456868</v>
+        <v>0.004886095115577458</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.417995289518935</v>
+        <v>1.739022981843401</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01628629893577945</v>
+        <v>0.08320081968712571</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003584591898530053</v>
+        <v>0.003586888792959634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00163547929040141</v>
+        <v>0.001635928870630253</v>
       </c>
       <c r="D3" t="n">
-        <v>2.191768443396343</v>
+        <v>2.192570140031675</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02927318771431331</v>
+        <v>0.02921464127844562</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004280276776954847</v>
+        <v>0.0004264819948493065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009678254525180852</v>
+        <v>0.0009686199797747204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.442257099750625</v>
+        <v>0.4402985729744051</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6586666387930787</v>
+        <v>0.6600825218335872</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008035791028237742</v>
+        <v>0.0008046231666310144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001635123923395406</v>
+        <v>0.001635339659898493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4914484408956034</v>
+        <v>0.4920220467722026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6235191899677925</v>
+        <v>0.6231141868028724</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.203702192493107e-05</v>
+        <v>-1.369982744455123e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001013307332797939</v>
+        <v>0.001013534265040105</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01187894485249061</v>
+        <v>-0.01351688632254493</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9905312020687302</v>
+        <v>0.9892256613558958</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0004013550557453304</v>
+        <v>0.0004135959375511808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00134492826478354</v>
+        <v>0.00134512002423008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2984211621204397</v>
+        <v>0.3074788346771621</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7656173765682668</v>
+        <v>0.75872227416586</v>
       </c>
     </row>
   </sheetData>
